--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3481136.553985873</v>
+        <v>3476832.214176006</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>59.80127191868291</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>12.84496163790507</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015059</v>
       </c>
     </row>
     <row r="3">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>139.6800827703947</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>98.16050495411959</v>
       </c>
     </row>
     <row r="4">
@@ -819,13 +819,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>17.28688718947136</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>54.81167109597864</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H5" t="n">
-        <v>263.7138800015062</v>
+        <v>233.6084191422256</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>212.5689651179052</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>68.26003448367454</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>10.18456372565635</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>48.2027943444968</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>102.0276666135366</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>210.6174346029835</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>205.5409071624574</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465045</v>
+        <v>65.76608425465056</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>123.4854171348408</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>164.7567344853342</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614508</v>
+        <v>92.8390969161451</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115242</v>
+        <v>20.24979976115247</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>132.6026661256379</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>197.9432120318503</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>217.5925404204267</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.79222725775175</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>146.4649598217091</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>82.25298866282672</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>205.4655738502109</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>93.40444476188321</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>240.7377005646511</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>70.04554881124335</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695432</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>14.73874327217562</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>156.8624097380506</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>59.45282559760403</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,10 +2961,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>174.6548851776596</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>119.456671712837</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>103.5745801383499</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3556,10 +3556,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>220.4545102853546</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,10 +3957,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>26.07046444232116</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>166.5451136812779</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4185,10 +4185,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101.4117490931552</v>
+        <v>320.3587892151028</v>
       </c>
       <c r="C2" t="n">
-        <v>41.00642392276842</v>
+        <v>53.98113264792505</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276842</v>
+        <v>53.98113264792505</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>53.98113264792505</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>47.03563189872158</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>34.07181912527712</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>34.07181912527712</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="J2" t="n">
         <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515902</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030597</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991309</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358406</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>1011.026904601762</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946892</v>
+        <v>840.4214638411516</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946892</v>
+        <v>586.7364457822805</v>
       </c>
       <c r="V2" t="n">
-        <v>634.1670622275112</v>
+        <v>586.7364457822805</v>
       </c>
       <c r="W2" t="n">
-        <v>634.1670622275112</v>
+        <v>586.7364457822805</v>
       </c>
       <c r="X2" t="n">
-        <v>634.1670622275112</v>
+        <v>586.7364457822805</v>
       </c>
       <c r="Y2" t="n">
-        <v>367.7894056603332</v>
+        <v>320.3587892151028</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>433.4309880222911</v>
+        <v>344.4845493424988</v>
       </c>
       <c r="C3" t="n">
-        <v>258.9779587411641</v>
+        <v>170.0315200613717</v>
       </c>
       <c r="D3" t="n">
-        <v>258.9779587411641</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="E3" t="n">
-        <v>258.9779587411641</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="F3" t="n">
-        <v>258.9779587411641</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>95.78113116957464</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789492</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212815</v>
+        <v>819.703411774281</v>
       </c>
       <c r="W3" t="n">
-        <v>782.2822794846134</v>
+        <v>819.703411774281</v>
       </c>
       <c r="X3" t="n">
-        <v>641.191286787245</v>
+        <v>611.8519115687482</v>
       </c>
       <c r="Y3" t="n">
-        <v>433.4309880222911</v>
+        <v>512.6998863625668</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167.9870578980309</v>
+        <v>634.9529738206666</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9870578980309</v>
+        <v>466.0167908927597</v>
       </c>
       <c r="D4" t="n">
-        <v>167.9870578980309</v>
+        <v>315.9001514804239</v>
       </c>
       <c r="E4" t="n">
-        <v>167.9870578980309</v>
+        <v>167.9870578980308</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287937</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726550999</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375325</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227036</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075532</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407077</v>
+        <v>1037.394017794436</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407077</v>
+        <v>1037.394017794436</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407077</v>
+        <v>1037.394017794436</v>
       </c>
       <c r="U4" t="n">
-        <v>870.6976675013353</v>
+        <v>1037.394017794436</v>
       </c>
       <c r="V4" t="n">
-        <v>616.0131792954485</v>
+        <v>1037.394017794436</v>
       </c>
       <c r="W4" t="n">
-        <v>349.6355227282705</v>
+        <v>1037.394017794436</v>
       </c>
       <c r="X4" t="n">
-        <v>349.6355227282705</v>
+        <v>1037.394017794436</v>
       </c>
       <c r="Y4" t="n">
-        <v>349.6355227282705</v>
+        <v>816.6014386509063</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>573.7617370571244</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="C5" t="n">
-        <v>307.3840804899464</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="D5" t="n">
-        <v>307.3840804899464</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="E5" t="n">
-        <v>307.3840804899464</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="F5" t="n">
-        <v>300.4385797407429</v>
+        <v>639.9141999866143</v>
       </c>
       <c r="G5" t="n">
-        <v>287.4747669672985</v>
+        <v>373.5365434194364</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
         <v>49.28269087917556</v>
@@ -4573,16 +4573,16 @@
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>840.1393936243023</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V5" t="n">
-        <v>573.7617370571244</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="W5" t="n">
-        <v>573.7617370571244</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="X5" t="n">
-        <v>573.7617370571244</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="Y5" t="n">
-        <v>573.7617370571244</v>
+        <v>646.8597007358178</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>591.5032692057247</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>417.0502399245976</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>268.1158302633464</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>268.1158302633464</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>904.2569522304914</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>1021.314552263895</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4673,25 +4673,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>967.5701064313255</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>967.5701064313255</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>967.5701064313255</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>967.5701064313255</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>967.5701064313255</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>759.7186062257927</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>759.7186062257927</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>124.1553595047029</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="C7" t="n">
-        <v>124.1553595047029</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="D7" t="n">
-        <v>124.1553595047029</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="E7" t="n">
-        <v>124.1553595047029</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F7" t="n">
-        <v>124.1553595047029</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551011</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4761,16 +4761,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>800.1710318001379</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="W7" t="n">
-        <v>533.79337523296</v>
+        <v>533.7933752329598</v>
       </c>
       <c r="X7" t="n">
-        <v>305.8038243349426</v>
+        <v>305.8038243349424</v>
       </c>
       <c r="Y7" t="n">
-        <v>305.8038243349426</v>
+        <v>85.01124519141231</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1500.843518327212</v>
+        <v>1463.472841621512</v>
       </c>
       <c r="C8" t="n">
-        <v>1131.8810013868</v>
+        <v>1094.5103246811</v>
       </c>
       <c r="D8" t="n">
-        <v>1131.8810013868</v>
+        <v>736.24462607435</v>
       </c>
       <c r="E8" t="n">
-        <v>746.092748788556</v>
+        <v>736.24462607435</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3478653511989</v>
+        <v>325.2587212847424</v>
       </c>
       <c r="G8" t="n">
         <v>117.6416433428662</v>
@@ -4801,55 +4801,55 @@
         <v>117.6416433428662</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685556</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467168</v>
+        <v>187.3702251467166</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607416</v>
+        <v>442.1757437607409</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045913</v>
+        <v>795.1862829045908</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995225</v>
+        <v>1219.647962995224</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209582</v>
+        <v>1655.59168520958</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940593</v>
+        <v>2053.905718940591</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550195</v>
+        <v>2359.356530550192</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661161</v>
+        <v>2540.564622661159</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.56276034278</v>
+        <v>2560.562760342778</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762133</v>
+        <v>2435.830015762131</v>
       </c>
       <c r="T8" t="n">
-        <v>2227.077931858406</v>
+        <v>2227.077931858404</v>
       </c>
       <c r="U8" t="n">
-        <v>2227.077931858406</v>
+        <v>2227.077931858404</v>
       </c>
       <c r="V8" t="n">
-        <v>2227.077931858406</v>
+        <v>2227.077931858404</v>
       </c>
       <c r="W8" t="n">
-        <v>1874.309276588292</v>
+        <v>2227.077931858404</v>
       </c>
       <c r="X8" t="n">
-        <v>1500.843518327212</v>
+        <v>1853.612173597324</v>
       </c>
       <c r="Y8" t="n">
-        <v>1500.843518327212</v>
+        <v>1463.472841621512</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>931.3041138965633</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>756.8510846154363</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>607.9166749541851</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>448.6792199487295</v>
       </c>
       <c r="F9" t="n">
         <v>302.1446619756144</v>
@@ -4877,58 +4877,58 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993886</v>
+        <v>71.66559839993887</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685556</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507233</v>
+        <v>113.4887579637184</v>
       </c>
       <c r="K9" t="n">
-        <v>684.7364639442752</v>
+        <v>559.90633895727</v>
       </c>
       <c r="L9" t="n">
-        <v>979.2724473777562</v>
+        <v>854.4423223907506</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.338915852057</v>
+        <v>1217.508790865051</v>
       </c>
       <c r="N9" t="n">
-        <v>1729.423318324626</v>
+        <v>1604.59319333762</v>
       </c>
       <c r="O9" t="n">
-        <v>2061.310128312015</v>
+        <v>1936.480003325008</v>
       </c>
       <c r="P9" t="n">
-        <v>2308.345486741639</v>
+        <v>2445.345361789033</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.56276034278</v>
+        <v>2560.562760342778</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.56276034278</v>
+        <v>2560.562760342778</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251696</v>
+        <v>2426.620673347184</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685345</v>
+        <v>2232.610870780833</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751574</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519831</v>
+        <v>1769.36860661532</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.33685679163</v>
+        <v>1515.131249887118</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586097</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821143</v>
+        <v>1099.519450916631</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.2112552068556</v>
+        <v>496.1309356994948</v>
       </c>
       <c r="C10" t="n">
-        <v>51.2112552068556</v>
+        <v>496.1309356994948</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2112552068556</v>
+        <v>346.014296287159</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2112552068556</v>
+        <v>198.1012027047659</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685556</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685556</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685556</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685556</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380135</v>
+        <v>76.63468308380121</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676565</v>
+        <v>248.2500215676562</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368916</v>
+        <v>523.3850043368911</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904029</v>
+        <v>823.8653899904023</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101612</v>
+        <v>1122.635640101611</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.58202793109</v>
+        <v>1382.582027931089</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616499</v>
+        <v>1581.490387616498</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412619</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.156055412619</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="T10" t="n">
-        <v>1333.213416996609</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="U10" t="n">
-        <v>1044.095043491251</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="V10" t="n">
-        <v>789.4105552853637</v>
+        <v>1415.978700608243</v>
       </c>
       <c r="W10" t="n">
-        <v>499.9933852484031</v>
+        <v>1126.561530571282</v>
       </c>
       <c r="X10" t="n">
-        <v>272.0038343503857</v>
+        <v>898.5719796732647</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.2112552068556</v>
+        <v>677.7794005297345</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,16 +5129,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5269,10 +5269,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,7 +5281,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>847.6442739835331</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>547.5889719879187</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>400.6990244900084</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1767.492038892281</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1250.085317957303</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5497,67 +5497,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>559.7594328861248</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>390.823249958218</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>240.7066105458822</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1734.29168600076</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1479.607197794873</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1190.190027757912</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>962.2004768598947</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>741.4078977163646</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,22 +5764,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>782.8410298377091</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>2231.588527385791</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>2828.967015012343</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>3456.56497856695</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>4008.474708806237</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4432.097858301305</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4665.359518676188</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>741.843151638089</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>572.9069687101821</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>422.7903292978464</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.4916164683287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,55 +6208,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1025.119922845744</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1652.717886400351</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3333.788008320021</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>3164.851825392114</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>3014.735185979779</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E28" t="n">
-        <v>2866.822092397385</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F28" t="n">
-        <v>2719.932144899475</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376192</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053497</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4507.978318053497</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>4218.903091397695</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>3964.218603191808</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>3964.218603191808</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>3736.229052293791</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>3515.436473150261</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6457,7 +6457,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
@@ -6466,7 +6466,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3091.514342801865</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>3091.514342801865</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>2941.39770338953</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>2793.484609807137</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>2646.594662309226</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>3677.571434467152</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>3449.581883569135</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>3273.162807632105</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888043</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6894,16 +6894,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1567.722549094265</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1278.305379057304</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1050.315828159287</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1050.315828159287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6979,7 +6979,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>175.8744207939072</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2342.342295561725</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2122.740830584667</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1833.665603928865</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1578.981115722978</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7204,19 +7204,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7253,28 +7253,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1815.886107649656</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1754.779756989948</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>1754.779756989948</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1465.362586952987</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>1237.37303605497</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>1016.58045691144</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,10 +7408,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3342.537229081859</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C43" t="n">
-        <v>3173.601046153952</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741616</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159223</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3999.301626420637</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7645,10 +7645,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1097.958364892466</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
         <v>484.8112968429803</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127241</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>97.32166909127145</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446515</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8148,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444617</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>92.05878169167806</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.262887399594348</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>264.4747475094962</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.3837121690871</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348516</v>
+        <v>20.98618304348527</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>166.0397529241855</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>72.11969353038566</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>83.27114962944212</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>46.67206947361709</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>45.44677382459304</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>216.1389255780008</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>131.6952193743936</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>8.661728554218257</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>43.9297681744352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>132.680971610991</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>77.45170586329473</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>65.72996410388953</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>260.4525338942698</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7017074173499793</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>676264.9921494644</v>
+        <v>676264.9921494646</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>676264.9921494647</v>
+        <v>676264.9921494646</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>676264.9921494647</v>
+        <v>676264.9921494646</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>676264.9921494644</v>
+        <v>676264.9921494646</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>676264.9921494646</v>
+        <v>676264.9921494644</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>676264.9921494646</v>
+        <v>676264.9921494647</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>676264.9921494647</v>
+        <v>676264.9921494644</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>676264.9921494647</v>
+        <v>676264.9921494646</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>759463.6371244617</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244619</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244619</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="G2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="H2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="I2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="G2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="L2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="M2" t="n">
         <v>746610.6047132551</v>
       </c>
-      <c r="I2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132551</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132553</v>
-      </c>
       <c r="N2" t="n">
-        <v>746610.6047132548</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.604713255</v>
+        <v>746610.6047132557</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.980591193</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580782</v>
+        <v>390680.0076580775</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606939</v>
+        <v>507909.232060695</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,25 +26386,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911395</v>
+        <v>68999.15441911404</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.695094722106472e-11</v>
       </c>
       <c r="L3" t="n">
         <v>95270.23779101737</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954692</v>
+        <v>132717.9756954694</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8.987341795787879e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140465.2517501119</v>
+        <v>140465.2517501121</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179346</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567892</v>
+        <v>92902.86757567886</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-234899.5122900175</v>
+        <v>-234899.5122900173</v>
       </c>
       <c r="C6" t="n">
-        <v>445188.4683011759</v>
+        <v>445188.4683011762</v>
       </c>
       <c r="D6" t="n">
-        <v>135415.5101405929</v>
+        <v>135415.5101405936</v>
       </c>
       <c r="E6" t="n">
-        <v>126411.8105768606</v>
+        <v>126064.4313225029</v>
       </c>
       <c r="F6" t="n">
-        <v>634321.0426375545</v>
+        <v>633973.6633831974</v>
       </c>
       <c r="G6" t="n">
-        <v>634321.0426375548</v>
+        <v>633973.6633831977</v>
       </c>
       <c r="H6" t="n">
-        <v>634321.0426375545</v>
+        <v>633973.663383198</v>
       </c>
       <c r="I6" t="n">
-        <v>634321.0426375547</v>
+        <v>633973.6633831979</v>
       </c>
       <c r="J6" t="n">
-        <v>565321.8882184405</v>
+        <v>564974.5089640836</v>
       </c>
       <c r="K6" t="n">
-        <v>634321.0426375547</v>
+        <v>633973.663383198</v>
       </c>
       <c r="L6" t="n">
-        <v>539050.8048465373</v>
+        <v>538703.4255921805</v>
       </c>
       <c r="M6" t="n">
-        <v>501603.0669420855</v>
+        <v>501255.687687728</v>
       </c>
       <c r="N6" t="n">
-        <v>634321.0426375542</v>
+        <v>633973.663383198</v>
       </c>
       <c r="O6" t="n">
-        <v>634321.0426375547</v>
+        <v>633973.663383198</v>
       </c>
       <c r="P6" t="n">
-        <v>634321.0426375543</v>
+        <v>633973.6633831981</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26706,19 +26706,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.519713256482332e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627823</v>
+        <v>933.7024595627815</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.140690085695</v>
+        <v>640.1406900856945</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26928,13 +26928,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.519713256482332e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>1.123417724473485e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.123417724473485e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.647445793304</v>
+        <v>319.6474457933033</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788914</v>
+        <v>434.2730407788924</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841889</v>
+        <v>376.4268100841883</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139533</v>
+        <v>532.5675980139541</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-3.705451626108617e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>263.713880001506</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841889</v>
+        <v>376.4268100841886</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139533</v>
+        <v>532.5675980139541</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27165,13 +27165,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.519713256482332e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>1.123417724473485e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841889</v>
+        <v>376.4268100841883</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139533</v>
+        <v>532.5675980139541</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>305.4716198523246</v>
+        <v>101.5590117695016</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27399,7 +27399,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>102.461657908992</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862871</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>122.5240586545477</v>
       </c>
     </row>
     <row r="3">
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27517,16 +27517,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>66.09290243308277</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>107.5221908231848</v>
       </c>
     </row>
     <row r="4">
@@ -27539,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>110.2177156941926</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -27593,19 +27593,19 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>231.4469594066989</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.8091183350848</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H5" t="n">
-        <v>50.4797526277618</v>
+        <v>80.58521348704238</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>38.57920276037726</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862871</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27703,7 +27703,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>78.88990092852423</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
@@ -27760,10 +27760,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.5884214778211</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>131.6291858374405</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>64.85600042500997</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27836,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.8091183350848</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>196.2586111387279</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>206.0082526257921</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.776449164533147</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.77644916453599</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>104.8162497430996</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640955</v>
       </c>
       <c r="S10" t="n">
         <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>22.80827647848849</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>34.5451029034013</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-9.368965401895893e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.848122317634986e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29517,7 +29517,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29580,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885554</v>
+        <v>3.753577726885551</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546669</v>
+        <v>38.44132789546666</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157555</v>
+        <v>144.7098053157553</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972531</v>
+        <v>318.5802175972528</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763187</v>
+        <v>477.4691627763183</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354926</v>
+        <v>592.3427171354921</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359935</v>
+        <v>659.0954050359931</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525072</v>
+        <v>669.7602577525066</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307889</v>
+        <v>632.4356192307883</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983017</v>
+        <v>539.7691690983013</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542127</v>
+        <v>405.3441667542123</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864749</v>
+        <v>235.7856768864747</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140465</v>
+        <v>85.53465245140458</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944152</v>
+        <v>16.43128649944151</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508443</v>
+        <v>0.3002862181508441</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436928</v>
+        <v>2.008341139436927</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035139</v>
+        <v>19.39634732035137</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026266</v>
+        <v>69.1468330902626</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079424</v>
+        <v>189.7441951079423</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502166</v>
+        <v>324.3030514502163</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571278</v>
+        <v>436.0654741571274</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617163</v>
+        <v>508.8678404617159</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152211</v>
+        <v>522.3360580152206</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519081</v>
+        <v>477.8354464519076</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947587</v>
+        <v>383.5050724947584</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.36298474637</v>
+        <v>256.3629847463698</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.6933209204787</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366397</v>
+        <v>37.30405581366394</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133931</v>
+        <v>8.095024154133924</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419032</v>
+        <v>0.1321277065419031</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752558</v>
+        <v>1.683725746752557</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840003</v>
+        <v>14.96985254840001</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415877</v>
+        <v>50.63422518415872</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954059</v>
+        <v>119.0394102954058</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772517</v>
+        <v>195.6183185772516</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490122</v>
+        <v>250.324098749012</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023123</v>
+        <v>263.9316641023121</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462348</v>
+        <v>257.6559590462346</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046253</v>
+        <v>237.9869810046251</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708729</v>
+        <v>203.6389757708728</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939801</v>
+        <v>140.98907139398</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307409</v>
+        <v>75.70643221307402</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658775</v>
+        <v>29.34274778658773</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942746</v>
+        <v>7.19410091794274</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650327</v>
+        <v>0.0918395861865032</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>514.695376254093</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,16 +32101,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>344.2757660550399</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>428.6149474293401</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179092</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,19 +33022,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33043,13 +33043,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>448.9178583921318</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>424.0909547148531</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,28 +33496,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,31 +33733,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>220.7280629601522</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33900,7 +33900,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33973,10 +33973,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>186.6878763515707</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34131,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34207,22 +34207,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>547.6926421044561</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34231,7 +34231,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,10 +34456,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>210.3948924365567</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34468,7 +34468,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34795,10 +34795,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250124</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966396</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34868,7 +34868,7 @@
         <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35029,13 +35029,13 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>263.7138800015062</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>33.87976539609076</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705668</v>
+        <v>137.5343130705666</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313381</v>
+        <v>257.3793117313377</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655054</v>
+        <v>356.5763021655048</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087208</v>
+        <v>428.7491718087203</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559163</v>
+        <v>440.3471941559157</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091022</v>
+        <v>402.3374078091016</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430322</v>
+        <v>308.5361733430317</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797632</v>
+        <v>183.0384768797628</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234278</v>
+        <v>20.20013907234258</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816846</v>
+        <v>62.90656844127557</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884362</v>
+        <v>450.9268494884359</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772536</v>
+        <v>297.5110943772532</v>
       </c>
       <c r="M9" t="n">
-        <v>366.733806539698</v>
+        <v>366.7338065396976</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318878</v>
+        <v>390.9943459318873</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074636</v>
+        <v>335.2392020074632</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804284</v>
+        <v>514.0054125899244</v>
       </c>
       <c r="Q9" t="n">
-        <v>254.7649228294355</v>
+        <v>116.3812106603482</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873308</v>
+        <v>25.68023017873298</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513688</v>
+        <v>173.3488267513687</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093284</v>
+        <v>277.9141240093281</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641529</v>
+        <v>303.5155410641527</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254635</v>
+        <v>301.7881314254632</v>
       </c>
       <c r="O10" t="n">
-        <v>262.572108918665</v>
+        <v>262.5721089186648</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357664</v>
+        <v>200.9175350357663</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228576</v>
+        <v>54.82702814228561</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>372.0991318096486</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>212.9340539717066</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>290.0605676494659</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394525</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36691,13 +36691,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>314.9434509778015</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>281.4947102704086</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>82.88662398579324</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37548,7 +37548,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37621,10 +37621,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>44.0916319071262</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>405.5586081824378</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,10 +38104,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>68.26085851453838</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3476832.214176006</v>
+        <v>3478592.744478791</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7871646.281108152</v>
+        <v>7871646.281108153</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015059</v>
+        <v>259.6326967715748</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>12.84496163790507</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.54941815044716</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>98.16050495411959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>17.28688718947136</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>17.28688718947226</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,58 +910,58 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
+        <v>12.83417464571001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>212.5689651179051</v>
+      </c>
+      <c r="X5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="H5" t="n">
-        <v>233.6084191422256</v>
-      </c>
-      <c r="I5" t="n">
-        <v>115.3066195468971</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>152.7676931992223</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>251.1481678782825</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48.2027943444968</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>83.43224246993546</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>166.3535615797117</v>
       </c>
       <c r="G8" t="n">
-        <v>205.5409071624574</v>
+        <v>11.54915978824949</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465056</v>
+        <v>65.76608425465039</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348408</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8390969161451</v>
+        <v>92.83909691614507</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115247</v>
+        <v>20.2497997611524</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>132.6026661256379</v>
+        <v>132.6026661256424</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.34571932180039</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>217.5925404204267</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>241.1435815093809</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>146.4649598217091</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>82.25298866282672</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>93.40444476188321</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812055</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695432</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784703</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>20.9284728855285</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>59.45282559760403</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>31.26260713376613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="33">
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444154</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>117.4765410832877</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3985,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812005</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>320.3587892151028</v>
+        <v>419.733006062639</v>
       </c>
       <c r="C2" t="n">
-        <v>53.98113264792505</v>
+        <v>157.477756798422</v>
       </c>
       <c r="D2" t="n">
-        <v>53.98113264792505</v>
+        <v>157.477756798422</v>
       </c>
       <c r="E2" t="n">
-        <v>53.98113264792505</v>
+        <v>157.477756798422</v>
       </c>
       <c r="F2" t="n">
-        <v>47.03563189872158</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G2" t="n">
-        <v>34.07181912527712</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>34.07181912527712</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012047</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515902</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030597</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991309</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358406</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601762</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006024</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411516</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>586.7364457822805</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="V2" t="n">
-        <v>586.7364457822805</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="W2" t="n">
-        <v>586.7364457822805</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="X2" t="n">
-        <v>586.7364457822805</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="Y2" t="n">
-        <v>320.3587892151028</v>
+        <v>686.1106626298169</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>344.4845493424988</v>
+        <v>591.5675658110954</v>
       </c>
       <c r="C3" t="n">
-        <v>170.0315200613717</v>
+        <v>591.5675658110954</v>
       </c>
       <c r="D3" t="n">
-        <v>21.09711040012047</v>
+        <v>591.5675658110954</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012047</v>
+        <v>432.3301108056399</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012047</v>
+        <v>285.7955528325249</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012047</v>
+        <v>148.3988663815921</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012047</v>
+        <v>47.91470449148126</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012047</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012047</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957464</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789492</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006024</v>
+        <v>826.7196740428381</v>
       </c>
       <c r="V3" t="n">
-        <v>819.703411774281</v>
+        <v>591.5675658110954</v>
       </c>
       <c r="W3" t="n">
-        <v>819.703411774281</v>
+        <v>591.5675658110954</v>
       </c>
       <c r="X3" t="n">
-        <v>611.8519115687482</v>
+        <v>591.5675658110954</v>
       </c>
       <c r="Y3" t="n">
-        <v>512.6998863625668</v>
+        <v>591.5675658110954</v>
       </c>
     </row>
     <row r="4">
@@ -4470,52 +4470,52 @@
         <v>466.0167908927597</v>
       </c>
       <c r="D4" t="n">
-        <v>315.9001514804239</v>
+        <v>315.900151480424</v>
       </c>
       <c r="E4" t="n">
-        <v>167.9870578980308</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012047</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012047</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012047</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012047</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012047</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287937</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726550999</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375325</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227036</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075532</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1037.394017794436</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1037.394017794436</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
         <v>1037.394017794436</v>
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>646.8597007358178</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="C5" t="n">
-        <v>646.8597007358178</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D5" t="n">
-        <v>646.8597007358178</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>646.8597007358178</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>639.9141999866143</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>373.5365434194364</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515909</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>646.8597007358178</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>646.8597007358178</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>646.8597007358178</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="X5" t="n">
-        <v>646.8597007358178</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="Y5" t="n">
-        <v>646.8597007358178</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="6">
@@ -4664,7 +4664,7 @@
         <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.32155393434483</v>
+        <v>424.4249251342374</v>
       </c>
       <c r="C7" t="n">
-        <v>36.32155393434483</v>
+        <v>255.4887422063304</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434483</v>
+        <v>105.3721027939947</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4761,16 +4761,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>800.1710318001377</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>533.7933752329598</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>305.8038243349424</v>
+        <v>826.8659691080072</v>
       </c>
       <c r="Y7" t="n">
-        <v>85.01124519141231</v>
+        <v>606.0733899644771</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1463.472841621512</v>
+        <v>1410.357830041769</v>
       </c>
       <c r="C8" t="n">
-        <v>1094.5103246811</v>
+        <v>1041.395313101357</v>
       </c>
       <c r="D8" t="n">
-        <v>736.24462607435</v>
+        <v>683.1296144946066</v>
       </c>
       <c r="E8" t="n">
-        <v>736.24462607435</v>
+        <v>297.3413618963623</v>
       </c>
       <c r="F8" t="n">
-        <v>325.2587212847424</v>
+        <v>129.3074613107949</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6416433428662</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428662</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685556</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="J8" t="n">
         <v>187.3702251467166</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607409</v>
+        <v>442.1757437607415</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045908</v>
+        <v>795.186282904592</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995224</v>
+        <v>1219.647962995226</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.59168520958</v>
+        <v>1655.591685209583</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940591</v>
+        <v>2053.905718940595</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550192</v>
+        <v>2359.356530550197</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661159</v>
+        <v>2540.564622661163</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342778</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762131</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="T8" t="n">
-        <v>2227.077931858404</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="U8" t="n">
-        <v>2227.077931858404</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="V8" t="n">
-        <v>2227.077931858404</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="W8" t="n">
-        <v>2227.077931858404</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="X8" t="n">
-        <v>1853.612173597324</v>
+        <v>2187.097002081702</v>
       </c>
       <c r="Y8" t="n">
-        <v>1463.472841621512</v>
+        <v>1796.95767010589</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>931.3041138965631</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>756.8510846154361</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>607.9166749541848</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
         <v>302.1446619756144</v>
@@ -4880,34 +4880,34 @@
         <v>71.66559839993887</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685556</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637184</v>
+        <v>113.4887579637187</v>
       </c>
       <c r="K9" t="n">
-        <v>559.90633895727</v>
+        <v>559.9063389572706</v>
       </c>
       <c r="L9" t="n">
-        <v>854.4423223907506</v>
+        <v>854.4423223907518</v>
       </c>
       <c r="M9" t="n">
-        <v>1217.508790865051</v>
+        <v>1217.508790865053</v>
       </c>
       <c r="N9" t="n">
-        <v>1604.59319333762</v>
+        <v>1604.593193337622</v>
       </c>
       <c r="O9" t="n">
-        <v>1936.480003325008</v>
+        <v>1936.480003325011</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789033</v>
+        <v>2445.345361789037</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342778</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342778</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="S9" t="n">
         <v>2426.620673347184</v>
@@ -4919,7 +4919,7 @@
         <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.36860661532</v>
+        <v>1769.368606615319</v>
       </c>
       <c r="W9" t="n">
         <v>1515.131249887118</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>496.1309356994948</v>
+        <v>715.9213805686143</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1309356994948</v>
+        <v>546.9851976407074</v>
       </c>
       <c r="D10" t="n">
-        <v>346.014296287159</v>
+        <v>396.8685582283716</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1012027047659</v>
+        <v>248.9554646459785</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685556</v>
+        <v>102.0655171480682</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685556</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685556</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685556</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380121</v>
+        <v>76.63468308380142</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676562</v>
+        <v>248.2500215676566</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368911</v>
+        <v>523.3850043368917</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904023</v>
+        <v>823.8653899904032</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101611</v>
+        <v>1122.635640101612</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931089</v>
+        <v>1382.58202793109</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616498</v>
+        <v>1581.490387616499</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="V10" t="n">
-        <v>1415.978700608243</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="W10" t="n">
-        <v>1126.561530571282</v>
+        <v>1346.351975440401</v>
       </c>
       <c r="X10" t="n">
-        <v>898.5719796732647</v>
+        <v>1118.362424542384</v>
       </c>
       <c r="Y10" t="n">
-        <v>677.7794005297345</v>
+        <v>897.569845398854</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,25 +5053,25 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466574</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,28 +5290,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5369,7 +5369,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703119</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>695.5020655703119</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>695.5020655703119</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>547.5889719879187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>400.6990244900084</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5497,31 +5497,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5533,31 +5533,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,52 +5734,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,28 +5983,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6241,34 +6241,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>114.9565346495158</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,64 +6451,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>702.4944101284095</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C31" t="n">
-        <v>533.5582272005026</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D31" t="n">
-        <v>383.4415877881669</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E31" t="n">
-        <v>235.5284942057738</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,37 +6712,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362703</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,22 +7189,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7265,7 +7265,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,19 +7423,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7502,7 +7502,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>576.8388927589092</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C43" t="n">
-        <v>407.9027098310023</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D43" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7642,55 +7642,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,16 +7721,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7739,7 +7739,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>97.32166909127145</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127223</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446515</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775127</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>264.4747475094962</v>
+        <v>264.4747475094963</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348527</v>
+        <v>20.98618304348513</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>45.37941682721012</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>72.11969353038566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>83.27114962944212</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405073</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>144.5956654067404</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>120.3791545843333</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>121.5862749664513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>62.35543909864917</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>39.70888054695304</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>676264.9921494646</v>
+        <v>676264.9921494647</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>676264.9921494646</v>
+        <v>676264.9921494644</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>676264.9921494646</v>
+        <v>676264.9921494644</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>676264.9921494646</v>
+        <v>676264.9921494644</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>676264.9921494646</v>
+        <v>676264.9921494647</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>676264.9921494646</v>
+        <v>676264.9921494644</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>676264.9921494647</v>
+        <v>676264.9921494644</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>676264.9921494644</v>
+        <v>676264.9921494647</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>676264.9921494646</v>
+        <v>676264.9921494644</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244617</v>
+        <v>759463.6371244618</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244618</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244619</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132554</v>
@@ -26328,34 +26328,34 @@
         <v>746610.6047132553</v>
       </c>
       <c r="G2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="H2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="I2" t="n">
         <v>746610.6047132551</v>
       </c>
-      <c r="H2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="K2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="L2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="M2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="N2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="O2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="P2" t="n">
         <v>746610.6047132552</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132551</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132557</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.980591193</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580775</v>
+        <v>390680.0076580786</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.232060695</v>
+        <v>507909.2320606936</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,22 +26386,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911404</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>2.695094722106472e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101737</v>
+        <v>95270.23779101757</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954694</v>
+        <v>132717.9756954691</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.254595479956489e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140465.2517501121</v>
+        <v>140465.2517501118</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
@@ -26435,31 +26435,31 @@
         <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179343</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.0322517935</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179349</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179342</v>
       </c>
       <c r="N4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179348</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179348</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567886</v>
+        <v>92902.86757567895</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-234899.5122900173</v>
       </c>
       <c r="C6" t="n">
-        <v>445188.4683011762</v>
+        <v>445188.4683011759</v>
       </c>
       <c r="D6" t="n">
-        <v>135415.5101405936</v>
+        <v>135415.5101405926</v>
       </c>
       <c r="E6" t="n">
-        <v>126064.4313225029</v>
+        <v>126377.0726514256</v>
       </c>
       <c r="F6" t="n">
-        <v>633973.6633831974</v>
+        <v>634286.304712119</v>
       </c>
       <c r="G6" t="n">
-        <v>633973.6633831977</v>
+        <v>634286.3047121189</v>
       </c>
       <c r="H6" t="n">
-        <v>633973.663383198</v>
+        <v>634286.304712119</v>
       </c>
       <c r="I6" t="n">
-        <v>633973.6633831979</v>
+        <v>634286.3047121187</v>
       </c>
       <c r="J6" t="n">
-        <v>564974.5089640836</v>
+        <v>565287.1502930049</v>
       </c>
       <c r="K6" t="n">
-        <v>633973.663383198</v>
+        <v>634286.304712119</v>
       </c>
       <c r="L6" t="n">
-        <v>538703.4255921805</v>
+        <v>539016.0669211012</v>
       </c>
       <c r="M6" t="n">
-        <v>501255.687687728</v>
+        <v>501568.3290166499</v>
       </c>
       <c r="N6" t="n">
-        <v>633973.663383198</v>
+        <v>634286.3047121188</v>
       </c>
       <c r="O6" t="n">
-        <v>633973.663383198</v>
+        <v>634286.304712119</v>
       </c>
       <c r="P6" t="n">
-        <v>633973.6633831981</v>
+        <v>634286.304712119</v>
       </c>
     </row>
   </sheetData>
@@ -26706,25 +26706,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.519713256482332e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627815</v>
+        <v>933.7024595627826</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856945</v>
+        <v>640.1406900856955</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26928,13 +26928,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.519713256482332e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.818244349945611e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933033</v>
+        <v>319.6474457933043</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788924</v>
+        <v>434.2730407788912</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841883</v>
+        <v>376.4268100841894</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139541</v>
+        <v>532.5675980139529</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-3.705451626108617e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841886</v>
+        <v>376.4268100841894</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139541</v>
+        <v>532.5675980139529</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,13 +27165,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.519713256482332e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841883</v>
+        <v>376.4268100841894</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139541</v>
+        <v>532.5675980139529</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695016</v>
+        <v>105.6401949994328</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27399,7 +27399,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>102.461657908992</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545477</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>17.37238585105843</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27514,7 +27514,7 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>107.5221908231848</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27560,7 +27560,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>110.2177156941926</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>205.9274586900936</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>80.58521348704238</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>136.6720035995079</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>131.6291858374405</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>63.00172017663371</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>240.5224841619997</v>
       </c>
       <c r="G8" t="n">
-        <v>206.0082526257921</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203005</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
         <v>251.0453666896857</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.77644916453599</v>
+        <v>1.776449164531442</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>115.9615342899058</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430996</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640955</v>
+        <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
         <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>34.5451029034013</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-9.368965401895893e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.848122317634986e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29517,7 +29517,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29526,10 +29526,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,13 +29562,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29751,13 +29751,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29802,19 +29802,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-2.796531001247414e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30705,7 +30705,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885551</v>
+        <v>3.753577726885555</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546666</v>
+        <v>38.4413278954667</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157553</v>
+        <v>144.7098053157555</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972528</v>
+        <v>318.5802175972532</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763183</v>
+        <v>477.4691627763188</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354921</v>
+        <v>592.3427171354928</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359931</v>
+        <v>659.0954050359937</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525066</v>
+        <v>669.7602577525074</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307883</v>
+        <v>632.435619230789</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983013</v>
+        <v>539.7691690983019</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542123</v>
+        <v>405.3441667542128</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864747</v>
+        <v>235.785676886475</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140458</v>
+        <v>85.53465245140468</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944151</v>
+        <v>16.43128649944153</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508441</v>
+        <v>0.3002862181508443</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436927</v>
+        <v>2.008341139436929</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035137</v>
+        <v>19.39634732035139</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902626</v>
+        <v>69.14683309026267</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079423</v>
+        <v>189.7441951079425</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502163</v>
+        <v>324.3030514502167</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571274</v>
+        <v>436.0654741571279</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617159</v>
+        <v>508.8678404617164</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152206</v>
+        <v>522.3360580152212</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519076</v>
+        <v>477.8354464519082</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947584</v>
+        <v>383.5050724947588</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463698</v>
+        <v>256.36298474637</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204787</v>
+        <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366394</v>
+        <v>37.30405581366398</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133924</v>
+        <v>8.095024154133933</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419031</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752557</v>
+        <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840001</v>
+        <v>14.96985254840003</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415872</v>
+        <v>50.63422518415878</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954058</v>
+        <v>119.0394102954059</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772516</v>
+        <v>195.6183185772518</v>
       </c>
       <c r="L10" t="n">
-        <v>250.324098749012</v>
+        <v>250.3240987490123</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023121</v>
+        <v>263.9316641023124</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462346</v>
+        <v>257.6559590462349</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046251</v>
+        <v>237.9869810046254</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708728</v>
+        <v>203.638975770873</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.98907139398</v>
+        <v>140.9890713939802</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307402</v>
+        <v>75.70643221307411</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658773</v>
+        <v>29.34274778658776</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19410091794274</v>
+        <v>7.194100917942748</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0918395861865032</v>
+        <v>0.0918395861865033</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558009</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>400.5469039565762</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34795,10 +34795,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>215.5616691250124</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877686</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966396</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496654</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705666</v>
+        <v>137.5343130705669</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313377</v>
+        <v>257.3793117313382</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655048</v>
+        <v>356.5763021655055</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087203</v>
+        <v>428.749171808721</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559157</v>
+        <v>440.3471941559165</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091016</v>
+        <v>402.3374078091023</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430317</v>
+        <v>308.5361733430323</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797628</v>
+        <v>183.0384768797633</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234258</v>
+        <v>20.20013907234284</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127557</v>
+        <v>62.90656844127579</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884359</v>
+        <v>450.9268494884363</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772532</v>
+        <v>297.5110943772537</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396976</v>
+        <v>366.7338065396981</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318873</v>
+        <v>390.9943459318879</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074632</v>
+        <v>335.2392020074637</v>
       </c>
       <c r="P9" t="n">
-        <v>514.0054125899244</v>
+        <v>514.0054125899248</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603482</v>
+        <v>116.3812106603485</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873298</v>
+        <v>25.68023017873311</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513687</v>
+        <v>173.3488267513689</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093281</v>
+        <v>277.9141240093284</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641527</v>
+        <v>303.515541064153</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254632</v>
+        <v>301.7881314254635</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186648</v>
+        <v>262.572108918665</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357663</v>
+        <v>200.9175350357665</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228561</v>
+        <v>54.82702814228578</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,7 +35503,7 @@
         <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113564</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>257.9506595121318</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>199.0097390795102</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>199.0097390795102</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
